--- a/data/trans_orig/P57B1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>41811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30340</v>
+        <v>31190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55921</v>
+        <v>55904</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08399036361506174</v>
+        <v>0.08399036361506172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06094815861951167</v>
+        <v>0.06265479151753746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1123349063662968</v>
+        <v>0.1123000458785667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -762,19 +762,19 @@
         <v>52199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41549</v>
+        <v>40895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67709</v>
+        <v>66890</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08394495658093705</v>
+        <v>0.08394495658093706</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0668172777168142</v>
+        <v>0.06576680272921523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.108888313481145</v>
+        <v>0.1075709721258625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -783,19 +783,19 @@
         <v>94010</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77478</v>
+        <v>76912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114455</v>
+        <v>114003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08396514525579331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06919938750158521</v>
+        <v>0.0686945158203892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1022254056965902</v>
+        <v>0.1018218855927633</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>69578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55079</v>
+        <v>55839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84490</v>
+        <v>86599</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1397700732079738</v>
+        <v>0.1397700732079739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1106427310574048</v>
+        <v>0.1121697627688489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1697260919212819</v>
+        <v>0.1739625662714846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -833,19 +833,19 @@
         <v>97342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82332</v>
+        <v>83488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112772</v>
+        <v>113875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1565424085993237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1324036643874516</v>
+        <v>0.134262993307625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1813566575427934</v>
+        <v>0.1831303327731968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -854,19 +854,19 @@
         <v>166920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146028</v>
+        <v>144845</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>191698</v>
+        <v>188856</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1490851669555205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1304256203485044</v>
+        <v>0.1293688390955814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1712153574882219</v>
+        <v>0.1686771015897648</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>175027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150782</v>
+        <v>150501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>201422</v>
+        <v>197729</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3515966120636335</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3028931068848341</v>
+        <v>0.3023283426789078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.404619831576065</v>
+        <v>0.3972010448404207</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>350</v>
@@ -904,19 +904,19 @@
         <v>255125</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233964</v>
+        <v>232501</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>278773</v>
+        <v>278116</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4102836194064711</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3762534390141688</v>
+        <v>0.3739005438688676</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4483148580757545</v>
+        <v>0.4472574920216925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>512</v>
@@ -925,19 +925,19 @@
         <v>430151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>397116</v>
+        <v>401279</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>460438</v>
+        <v>465399</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3841904615429035</v>
+        <v>0.3841904615429034</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3546851043626878</v>
+        <v>0.3584029429531155</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4112409514023184</v>
+        <v>0.4156720826648073</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>211389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183320</v>
+        <v>183816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236644</v>
+        <v>236287</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4246429511133311</v>
+        <v>0.424642951113331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3682576053475055</v>
+        <v>0.3692529494651578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4753752390921051</v>
+        <v>0.4746578583182936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -975,19 +975,19 @@
         <v>217159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196133</v>
+        <v>197062</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241638</v>
+        <v>239859</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3492290154132681</v>
+        <v>0.3492290154132682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3154148202177206</v>
+        <v>0.3169096042136429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3885948628239025</v>
+        <v>0.3857339026153893</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>459</v>
@@ -996,19 +996,19 @@
         <v>428549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>395904</v>
+        <v>397241</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>462389</v>
+        <v>460636</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3827592262457828</v>
+        <v>0.3827592262457829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3536027005963374</v>
+        <v>0.3547963833092601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4129839655054162</v>
+        <v>0.4114179168847382</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>18933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12254</v>
+        <v>12553</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28513</v>
+        <v>27254</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01978086401943773</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01280222517778089</v>
+        <v>0.01311508617702836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02978998115956384</v>
+        <v>0.02847461434039046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -1121,19 +1121,19 @@
         <v>28174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20596</v>
+        <v>20864</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37270</v>
+        <v>38020</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02530741943004268</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01850039015574449</v>
+        <v>0.01874090439257101</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03347787360810935</v>
+        <v>0.03415167409730256</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>70</v>
@@ -1142,19 +1142,19 @@
         <v>47107</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37057</v>
+        <v>36354</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61640</v>
+        <v>59148</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02275251203720428</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01789825645139757</v>
+        <v>0.01755881758897908</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02977193775982483</v>
+        <v>0.02856850542434146</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>63854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51102</v>
+        <v>49790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80840</v>
+        <v>79601</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06671371917660897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05339058224421012</v>
+        <v>0.05201937050687984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08445952970445658</v>
+        <v>0.08316515743941515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -1192,19 +1192,19 @@
         <v>116266</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101379</v>
+        <v>99171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135517</v>
+        <v>133610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1044370942362753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09106454624436468</v>
+        <v>0.08908177350613991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1217298357109249</v>
+        <v>0.1200164306429311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -1213,19 +1213,19 @@
         <v>180120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>157583</v>
+        <v>160315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>202019</v>
+        <v>204680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08699770882129988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07611211860543877</v>
+        <v>0.07743172360698772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09757463251495238</v>
+        <v>0.09886027674035987</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>329968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297825</v>
+        <v>300032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360544</v>
+        <v>365792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3447443050450923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3111615868205234</v>
+        <v>0.3134678639375491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3766890852830898</v>
+        <v>0.3821719661775293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>619</v>
@@ -1263,19 +1263,19 @@
         <v>420391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>392057</v>
+        <v>394035</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>448612</v>
+        <v>449945</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3776215933844559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.352169946966332</v>
+        <v>0.3539462183580407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.402971431237181</v>
+        <v>0.4041685334649487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>957</v>
@@ -1284,19 +1284,19 @@
         <v>750360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>709808</v>
+        <v>705541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>791281</v>
+        <v>791347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3624225370475676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3428360015045622</v>
+        <v>0.340775324132092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3821874297651742</v>
+        <v>0.3822192713826431</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>544383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>510720</v>
+        <v>506990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>579282</v>
+        <v>573606</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5687611117588609</v>
+        <v>0.5687611117588608</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5335904692289761</v>
+        <v>0.5296933858440538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6052223103127593</v>
+        <v>0.5992919488313314</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>750</v>
@@ -1334,19 +1334,19 @@
         <v>548430</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>516945</v>
+        <v>518531</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>577344</v>
+        <v>578901</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4926338929492262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4643520186508391</v>
+        <v>0.4657764635683635</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5186058589555198</v>
+        <v>0.520005030307376</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1219</v>
@@ -1355,19 +1355,19 @@
         <v>1092814</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1044521</v>
+        <v>1048899</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1135965</v>
+        <v>1136297</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5278272420939283</v>
+        <v>0.5278272420939282</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5045019155668472</v>
+        <v>0.5066167982919551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5486693273436549</v>
+        <v>0.548829576922128</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>3911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1359</v>
+        <v>1550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9065</v>
+        <v>8242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003743142551536953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001300560508435628</v>
+        <v>0.001483597961785432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008675947679246824</v>
+        <v>0.007887901274248231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -1480,19 +1480,19 @@
         <v>21067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14277</v>
+        <v>14946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28460</v>
+        <v>29247</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02016587019387233</v>
+        <v>0.02016587019387234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01366690354799173</v>
+        <v>0.01430727308285836</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02724261067644675</v>
+        <v>0.02799603280878834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -1501,19 +1501,19 @@
         <v>24978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18131</v>
+        <v>18477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33785</v>
+        <v>33855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01195389303428199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008676963146913578</v>
+        <v>0.008842616290965392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01616909737496136</v>
+        <v>0.01620266869873951</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>37675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27033</v>
+        <v>28055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50989</v>
+        <v>51088</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03605842929756281</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02587355065707853</v>
+        <v>0.02685086719401664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04880121549426295</v>
+        <v>0.04889564645732625</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>89</v>
@@ -1551,19 +1551,19 @@
         <v>61722</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50555</v>
+        <v>50415</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76184</v>
+        <v>76936</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05908312455152573</v>
+        <v>0.05908312455152574</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04839363690105454</v>
+        <v>0.04825874587429676</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07292592986197473</v>
+        <v>0.073646124666083</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>133</v>
@@ -1572,19 +1572,19 @@
         <v>99397</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>84059</v>
+        <v>82729</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>120142</v>
+        <v>118028</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04756991702291424</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0402292784367182</v>
+        <v>0.03959277721944768</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05749774591840504</v>
+        <v>0.0564863252659125</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>292099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>262247</v>
+        <v>266185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>322806</v>
+        <v>323613</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2795667237371857</v>
+        <v>0.2795667237371856</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2509950205582528</v>
+        <v>0.2547642861939366</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3089558183198261</v>
+        <v>0.3097280599275372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>516</v>
@@ -1622,19 +1622,19 @@
         <v>352158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>326077</v>
+        <v>326810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>378422</v>
+        <v>380329</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3370988871226024</v>
+        <v>0.3370988871226025</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3121337640003527</v>
+        <v>0.3128352719541628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3622401912297993</v>
+        <v>0.3640653372419523</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>834</v>
@@ -1643,19 +1643,19 @@
         <v>644257</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>596954</v>
+        <v>603172</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>684390</v>
+        <v>686620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.308330656780345</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2856921440578979</v>
+        <v>0.2886681636943843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3275373061376714</v>
+        <v>0.3286045863720407</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>711143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>680655</v>
+        <v>677167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>740795</v>
+        <v>740262</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6806317044137147</v>
+        <v>0.6806317044137146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6514512780010659</v>
+        <v>0.648113408739608</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7090115538505929</v>
+        <v>0.708501000691926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>870</v>
@@ -1693,19 +1693,19 @@
         <v>609725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>583278</v>
+        <v>581178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>638800</v>
+        <v>637345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5836521181319995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5583360439716244</v>
+        <v>0.5563262494599791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6114833307067492</v>
+        <v>0.6100910373610678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1529</v>
@@ -1714,19 +1714,19 @@
         <v>1320869</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1277532</v>
+        <v>1278585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1368803</v>
+        <v>1365200</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6321455331624588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6114054255016951</v>
+        <v>0.6119093729046945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6550860118125027</v>
+        <v>0.6533618596970866</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>12052</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6007</v>
+        <v>5679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20841</v>
+        <v>22158</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01239217470710246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006176370149908758</v>
+        <v>0.005839802112409961</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02142888299938572</v>
+        <v>0.02278331417401157</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1839,19 +1839,19 @@
         <v>11502</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6802</v>
+        <v>7081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17733</v>
+        <v>18513</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01268889596554137</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007503975362851669</v>
+        <v>0.007811154653518302</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01956298036854077</v>
+        <v>0.02042258430702413</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1860,19 +1860,19 @@
         <v>23554</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15265</v>
+        <v>15984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35723</v>
+        <v>34701</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01253531846294112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008124084633717138</v>
+        <v>0.008506427160337992</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01901157977218652</v>
+        <v>0.01846751015149182</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>24688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16136</v>
+        <v>16062</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40371</v>
+        <v>40382</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02538458763539096</v>
+        <v>0.02538458763539097</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01659192121565115</v>
+        <v>0.01651557127304387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0415110298893438</v>
+        <v>0.0415223217979768</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -1910,19 +1910,19 @@
         <v>34691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25113</v>
+        <v>25194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46138</v>
+        <v>46137</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0382707078117242</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02770379785043928</v>
+        <v>0.02779379801882642</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05089824479403773</v>
+        <v>0.05089677914695755</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -1931,19 +1931,19 @@
         <v>59379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45335</v>
+        <v>45731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>77394</v>
+        <v>77876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0316010874235532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02412722929590181</v>
+        <v>0.02433764167928498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04118871954013182</v>
+        <v>0.04144512551550657</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>246983</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>218361</v>
+        <v>218308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>278668</v>
+        <v>276806</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2539555524163835</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2245252535511285</v>
+        <v>0.2244709245756324</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2865352153717446</v>
+        <v>0.284620534935027</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>438</v>
@@ -1981,19 +1981,19 @@
         <v>276996</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>250739</v>
+        <v>252488</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>303518</v>
+        <v>302858</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3055755470921016</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2766100828097381</v>
+        <v>0.2785389598764332</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.334834209205607</v>
+        <v>0.3341063860125015</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>698</v>
@@ -2002,19 +2002,19 @@
         <v>523979</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>488766</v>
+        <v>485162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>564684</v>
+        <v>560488</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2788579808879026</v>
+        <v>0.2788579808879025</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2601178021653876</v>
+        <v>0.2582001005273968</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.300520897276289</v>
+        <v>0.2982879784744982</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>688821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>654421</v>
+        <v>657104</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>718314</v>
+        <v>718189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7082676852411232</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6728963726883949</v>
+        <v>0.675654457312581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7385923526592912</v>
+        <v>0.7384639293596124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>813</v>
@@ -2052,19 +2052,19 @@
         <v>583283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>556004</v>
+        <v>554774</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>608272</v>
+        <v>606651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6434648491306327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6133711715874243</v>
+        <v>0.6120148381644999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6710321040642198</v>
+        <v>0.6692445269650825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1464</v>
@@ -2073,19 +2073,19 @@
         <v>1272104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1228823</v>
+        <v>1232492</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1309415</v>
+        <v>1309529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.677005613225603</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6539713008664917</v>
+        <v>0.655924208981792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6968622877310426</v>
+        <v>0.6969225909784719</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>76707</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61654</v>
+        <v>59980</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95008</v>
+        <v>95977</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02209094260166383</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01775590052023293</v>
+        <v>0.01727386015886469</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02736150275745568</v>
+        <v>0.0276405864902573</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>173</v>
@@ -2198,19 +2198,19 @@
         <v>112942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95421</v>
+        <v>97608</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132316</v>
+        <v>133677</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03063881037627596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02588566851165583</v>
+        <v>0.02647903461891444</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03589459771873175</v>
+        <v>0.03626396230725534</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>257</v>
@@ -2219,19 +2219,19 @@
         <v>189648</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>164453</v>
+        <v>167496</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>215044</v>
+        <v>216957</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02649259148963819</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02297295465597644</v>
+        <v>0.02339809154598971</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03004020512856318</v>
+        <v>0.03030734849038747</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>195795</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>171376</v>
+        <v>170859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>224175</v>
+        <v>223543</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05638744197432909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04935488768881241</v>
+        <v>0.04920611338825048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06456055695616367</v>
+        <v>0.06437859743239602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>473</v>
@@ -2269,19 +2269,19 @@
         <v>310022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>279984</v>
+        <v>280994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>341517</v>
+        <v>339083</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08410261179470988</v>
+        <v>0.08410261179470989</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07595412655197395</v>
+        <v>0.07622793304321991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09264675723300052</v>
+        <v>0.09198639591545091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>693</v>
@@ -2290,19 +2290,19 @@
         <v>505817</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>469736</v>
+        <v>469226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>546097</v>
+        <v>544138</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0706591234786017</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06561884058704041</v>
+        <v>0.06554771848149893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07628607502416516</v>
+        <v>0.07601230136592418</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1044077</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>988718</v>
+        <v>990579</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1102885</v>
+        <v>1105788</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3006860051625969</v>
+        <v>0.300686005162597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2847430318357033</v>
+        <v>0.2852789554221644</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3176223520217619</v>
+        <v>0.3184581398681475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1923</v>
@@ -2340,19 +2340,19 @@
         <v>1304670</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1251997</v>
+        <v>1254239</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1361186</v>
+        <v>1353301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3539305690838043</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.33964150811211</v>
+        <v>0.34024966201699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3692623386482826</v>
+        <v>0.3671232777530471</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3001</v>
@@ -2361,19 +2361,19 @@
         <v>2348747</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2273778</v>
+        <v>2270948</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2424818</v>
+        <v>2435744</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3281038223018071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3176312213537993</v>
+        <v>0.3172359309371412</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3387304808203858</v>
+        <v>0.3402567170525636</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2155738</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2095470</v>
+        <v>2094339</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2214156</v>
+        <v>2217277</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6208356102614101</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6034789318162934</v>
+        <v>0.6031532126439856</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6376595715677689</v>
+        <v>0.6385584416305422</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2721</v>
@@ -2411,19 +2411,19 @@
         <v>1958598</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1901277</v>
+        <v>1906384</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2012265</v>
+        <v>2009446</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5313280087452098</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5157780274095032</v>
+        <v>0.5171635485851213</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5458869560186429</v>
+        <v>0.5451220941834096</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4671</v>
@@ -2432,19 +2432,19 @@
         <v>4114335</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4037002</v>
+        <v>4028488</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4190831</v>
+        <v>4197754</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5747444627299531</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5639415897415786</v>
+        <v>0.562752153181728</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5854304126903634</v>
+        <v>0.586397543878649</v>
       </c>
     </row>
     <row r="28">
